--- a/Figure4/Fig4 data.xlsx
+++ b/Figure4/Fig4 data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcsegura/Desktop/PP4_github/Figure4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E795CF-5DC1-4C4B-BDA7-6F7FA1CC92F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F7B9F8-30FE-F743-82F0-E40E2662C02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40960" yWindow="500" windowWidth="40960" windowHeight="21100" activeTab="2" xr2:uid="{565E4BED-FBF0-504D-8550-6924FAB4911B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{565E4BED-FBF0-504D-8550-6924FAB4911B}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 4F, G" sheetId="1" r:id="rId1"/>
     <sheet name="Figure 4H" sheetId="2" r:id="rId2"/>
     <sheet name="STATS" sheetId="7" r:id="rId3"/>
+    <sheet name="KW tests" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="71">
   <si>
     <t>file name</t>
   </si>
@@ -112,9 +113,6 @@
     <t>006xRCS132 cdk1 RNAi_2024-02-14_RCS live cell 2 channel_3_F2 ANNOTATED</t>
   </si>
   <si>
-    <t>006xRCS132 cdk1 RNAi_2024-02-14_RCS live cell 2 channel_3_F3 ANNOTATED</t>
-  </si>
-  <si>
     <t>no_cdk1_only cherry_jup_control_040424_1_</t>
   </si>
   <si>
@@ -242,13 +240,25 @@
   </si>
   <si>
     <t>4H</t>
+  </si>
+  <si>
+    <t>Kruskal-Willis Test</t>
+  </si>
+  <si>
+    <t>H-statistic</t>
+  </si>
+  <si>
+    <t>Dunn's multiple comparison tests</t>
+  </si>
+  <si>
+    <t>Dunn's Test (No Correction)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +272,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,10 +308,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD43BFD-03AA-2F43-B0CC-14852CB552CA}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,27 +760,27 @@
         <v>127</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J43" si="0">F3-100</f>
+        <f t="shared" ref="J3:J41" si="0">F3-100</f>
         <v>38</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K43" si="1">G3-100</f>
+        <f t="shared" ref="K3:K41" si="1">G3-100</f>
         <v>32</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L43" si="2">H3-100</f>
+        <f t="shared" ref="L3:L41" si="2">H3-100</f>
         <v>27</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N43" si="3">J3/L3</f>
+        <f t="shared" ref="N3:N41" si="3">J3/L3</f>
         <v>1.4074074074074074</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O43" si="4">K3/L3</f>
+        <f t="shared" ref="O3:O41" si="4">K3/L3</f>
         <v>1.1851851851851851</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P43" si="5">J3/K3</f>
+        <f t="shared" ref="P3:P41" si="5">J3/K3</f>
         <v>1.1875</v>
       </c>
     </row>
@@ -1852,1523 +1881,1426 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F27">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="G27">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="H27">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>3.9696969696969697</v>
       </c>
       <c r="O27">
         <f t="shared" si="4"/>
-        <v>0.65384615384615385</v>
+        <v>3.9090909090909092</v>
       </c>
       <c r="P27">
         <f t="shared" si="5"/>
-        <v>3.8235294117647061</v>
+        <v>1.0155038759689923</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
       </c>
       <c r="F28">
-        <v>231</v>
+        <v>612</v>
       </c>
       <c r="G28">
-        <v>229</v>
+        <v>556</v>
       </c>
       <c r="H28">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>512</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>456</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="N28">
         <f t="shared" si="3"/>
-        <v>3.9696969696969697</v>
+        <v>3.34640522875817</v>
       </c>
       <c r="O28">
         <f t="shared" si="4"/>
-        <v>3.9090909090909092</v>
+        <v>2.9803921568627452</v>
       </c>
       <c r="P28">
         <f t="shared" si="5"/>
-        <v>1.0155038759689923</v>
+        <v>1.1228070175438596</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
       </c>
       <c r="F29">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="G29">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="H29">
-        <v>166</v>
+        <v>305</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="N29">
         <f t="shared" si="3"/>
-        <v>6.833333333333333</v>
+        <v>2.3170731707317072</v>
       </c>
       <c r="O29">
         <f t="shared" si="4"/>
-        <v>1.9393939393939394</v>
+        <v>1.1170731707317074</v>
       </c>
       <c r="P29">
         <f t="shared" si="5"/>
-        <v>3.5234375</v>
+        <v>2.0742358078602621</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
       </c>
       <c r="F30">
-        <v>612</v>
+        <v>1015</v>
       </c>
       <c r="G30">
-        <v>556</v>
+        <v>834</v>
       </c>
       <c r="H30">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>915</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>456</v>
+        <v>734</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
-        <v>3.34640522875817</v>
+        <v>4.0848214285714288</v>
       </c>
       <c r="O30">
         <f t="shared" si="4"/>
-        <v>2.9803921568627452</v>
+        <v>3.2767857142857144</v>
       </c>
       <c r="P30">
         <f t="shared" si="5"/>
-        <v>1.1228070175438596</v>
+        <v>1.2465940054495912</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
       </c>
       <c r="F31">
-        <v>575</v>
+        <v>665</v>
       </c>
       <c r="G31">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="H31">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>565</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>229</v>
+        <v>120</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
-        <v>2.3170731707317072</v>
+        <v>4.3798449612403099</v>
       </c>
       <c r="O31">
         <f t="shared" si="4"/>
-        <v>1.1170731707317074</v>
+        <v>0.93023255813953487</v>
       </c>
       <c r="P31">
         <f t="shared" si="5"/>
-        <v>2.0742358078602621</v>
+        <v>4.708333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
       </c>
       <c r="F32">
-        <v>1015</v>
+        <v>604</v>
       </c>
       <c r="G32">
-        <v>834</v>
+        <v>617</v>
       </c>
       <c r="H32">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>915</v>
+        <v>504</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>734</v>
+        <v>517</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
-        <v>4.0848214285714288</v>
+        <v>3.3157894736842106</v>
       </c>
       <c r="O32">
         <f t="shared" si="4"/>
-        <v>3.2767857142857144</v>
+        <v>3.4013157894736841</v>
       </c>
       <c r="P32">
         <f t="shared" si="5"/>
-        <v>1.2465940054495912</v>
+        <v>0.97485493230174081</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
       </c>
       <c r="F33">
-        <v>665</v>
+        <v>330</v>
       </c>
       <c r="G33">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H33">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>565</v>
+        <v>230</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="N33">
         <f t="shared" si="3"/>
-        <v>4.3798449612403099</v>
+        <v>1.9491525423728813</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
-        <v>0.93023255813953487</v>
+        <v>0.98305084745762716</v>
       </c>
       <c r="P33">
         <f t="shared" si="5"/>
-        <v>4.708333333333333</v>
+        <v>1.9827586206896552</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
       </c>
       <c r="F34">
-        <v>604</v>
+        <v>408</v>
       </c>
       <c r="G34">
-        <v>617</v>
+        <v>389</v>
       </c>
       <c r="H34">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>308</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>517</v>
+        <v>289</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="N34">
         <f t="shared" si="3"/>
-        <v>3.3157894736842106</v>
+        <v>2.5040650406504064</v>
       </c>
       <c r="O34">
         <f t="shared" si="4"/>
-        <v>3.4013157894736841</v>
+        <v>2.3495934959349594</v>
       </c>
       <c r="P34">
         <f t="shared" si="5"/>
-        <v>0.97485493230174081</v>
+        <v>1.0657439446366781</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
       </c>
       <c r="F35">
-        <v>330</v>
+        <v>676</v>
       </c>
       <c r="G35">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="H35">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>576</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="N35">
         <f t="shared" si="3"/>
-        <v>1.9491525423728813</v>
+        <v>2.5263157894736841</v>
       </c>
       <c r="O35">
         <f t="shared" si="4"/>
-        <v>0.98305084745762716</v>
+        <v>0.88157894736842102</v>
       </c>
       <c r="P35">
         <f t="shared" si="5"/>
-        <v>1.9827586206896552</v>
+        <v>2.8656716417910446</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
       </c>
       <c r="F36">
-        <v>408</v>
+        <v>723</v>
       </c>
       <c r="G36">
-        <v>389</v>
+        <v>661</v>
       </c>
       <c r="H36">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>623</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>561</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="N36">
         <f t="shared" si="3"/>
-        <v>2.5040650406504064</v>
+        <v>3.3675675675675674</v>
       </c>
       <c r="O36">
         <f t="shared" si="4"/>
-        <v>2.3495934959349594</v>
+        <v>3.0324324324324325</v>
       </c>
       <c r="P36">
         <f t="shared" si="5"/>
-        <v>1.0657439446366781</v>
+        <v>1.1105169340463459</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
       </c>
       <c r="F37">
-        <v>676</v>
+        <v>553</v>
       </c>
       <c r="G37">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="H37">
-        <v>328</v>
+        <v>209</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>453</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="N37">
         <f t="shared" si="3"/>
-        <v>2.5263157894736841</v>
+        <v>4.1559633027522933</v>
       </c>
       <c r="O37">
         <f t="shared" si="4"/>
-        <v>0.88157894736842102</v>
+        <v>1.0550458715596329</v>
       </c>
       <c r="P37">
         <f t="shared" si="5"/>
-        <v>2.8656716417910446</v>
+        <v>3.9391304347826086</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
       </c>
       <c r="F38">
-        <v>723</v>
+        <v>532</v>
       </c>
       <c r="G38">
-        <v>661</v>
+        <v>500</v>
       </c>
       <c r="H38">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>432</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>561</v>
+        <v>400</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="N38">
         <f t="shared" si="3"/>
-        <v>3.3675675675675674</v>
+        <v>3.1764705882352939</v>
       </c>
       <c r="O38">
         <f t="shared" si="4"/>
-        <v>3.0324324324324325</v>
+        <v>2.9411764705882355</v>
       </c>
       <c r="P38">
         <f t="shared" si="5"/>
-        <v>1.1105169340463459</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
       </c>
       <c r="F39">
-        <v>553</v>
+        <v>668</v>
       </c>
       <c r="G39">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="H39">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>568</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="N39">
         <f t="shared" si="3"/>
-        <v>4.1559633027522933</v>
+        <v>3.7866666666666666</v>
       </c>
       <c r="O39">
         <f t="shared" si="4"/>
-        <v>1.0550458715596329</v>
+        <v>1.2066666666666668</v>
       </c>
       <c r="P39">
         <f t="shared" si="5"/>
-        <v>3.9391304347826086</v>
+        <v>3.1381215469613259</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
       </c>
       <c r="F40">
-        <v>532</v>
+        <v>684</v>
       </c>
       <c r="G40">
-        <v>500</v>
+        <v>673</v>
       </c>
       <c r="H40">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>584</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>573</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="N40">
         <f t="shared" si="3"/>
-        <v>3.1764705882352939</v>
+        <v>3.0899470899470898</v>
       </c>
       <c r="O40">
         <f t="shared" si="4"/>
-        <v>2.9411764705882355</v>
+        <v>3.0317460317460316</v>
       </c>
       <c r="P40">
         <f t="shared" si="5"/>
-        <v>1.08</v>
+        <v>1.0191972076788831</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
         <v>16</v>
       </c>
       <c r="F41">
-        <v>668</v>
+        <v>572</v>
       </c>
       <c r="G41">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="H41">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>568</v>
+        <v>472</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="N41">
         <f t="shared" si="3"/>
-        <v>3.7866666666666666</v>
+        <v>2.5792349726775958</v>
       </c>
       <c r="O41">
         <f t="shared" si="4"/>
-        <v>1.2066666666666668</v>
+        <v>1.2240437158469946</v>
       </c>
       <c r="P41">
         <f t="shared" si="5"/>
-        <v>3.1381215469613259</v>
+        <v>2.1071428571428572</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
       </c>
       <c r="F42">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="G42">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="H42">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
-        <v>584</v>
+        <f t="shared" ref="J42:J56" si="6">F42-100</f>
+        <v>570</v>
       </c>
       <c r="K42">
-        <f t="shared" si="1"/>
-        <v>573</v>
+        <f t="shared" ref="K42:K56" si="7">G42-100</f>
+        <v>561</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
-        <v>189</v>
+        <f t="shared" ref="L42:L56" si="8">H42-100</f>
+        <v>230</v>
       </c>
       <c r="N42">
-        <f t="shared" si="3"/>
-        <v>3.0899470899470898</v>
+        <f t="shared" ref="N42:N56" si="9">J42/L42</f>
+        <v>2.4782608695652173</v>
       </c>
       <c r="O42">
-        <f t="shared" si="4"/>
-        <v>3.0317460317460316</v>
+        <f t="shared" ref="O42:O56" si="10">K42/L42</f>
+        <v>2.4391304347826086</v>
       </c>
       <c r="P42">
-        <f t="shared" si="5"/>
-        <v>1.0191972076788831</v>
+        <f t="shared" ref="P42:P56" si="11">J42/K42</f>
+        <v>1.0160427807486632</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>28</v>
-      </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
       </c>
       <c r="F43">
-        <v>572</v>
+        <v>698</v>
       </c>
       <c r="G43">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="H43">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
-        <v>472</v>
+        <f t="shared" si="6"/>
+        <v>598</v>
       </c>
       <c r="K43">
-        <f t="shared" si="1"/>
-        <v>224</v>
+        <f t="shared" si="7"/>
+        <v>187</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
-        <v>183</v>
+        <f t="shared" si="8"/>
+        <v>180</v>
       </c>
       <c r="N43">
-        <f t="shared" si="3"/>
-        <v>2.5792349726775958</v>
+        <f t="shared" si="9"/>
+        <v>3.3222222222222224</v>
       </c>
       <c r="O43">
-        <f t="shared" si="4"/>
-        <v>1.2240437158469946</v>
+        <f t="shared" si="10"/>
+        <v>1.038888888888889</v>
       </c>
       <c r="P43">
-        <f t="shared" si="5"/>
-        <v>2.1071428571428572</v>
+        <f t="shared" si="11"/>
+        <v>3.1978609625668448</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
         <v>21</v>
       </c>
       <c r="F44">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="G44">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="H44">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="J44">
-        <f t="shared" ref="J44:J58" si="6">F44-100</f>
-        <v>570</v>
+        <f t="shared" si="6"/>
+        <v>610</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:K58" si="7">G44-100</f>
-        <v>561</v>
+        <f t="shared" si="7"/>
+        <v>589</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44:L58" si="8">H44-100</f>
-        <v>230</v>
+        <f t="shared" si="8"/>
+        <v>192</v>
       </c>
       <c r="N44">
-        <f t="shared" ref="N44:N58" si="9">J44/L44</f>
-        <v>2.4782608695652173</v>
+        <f t="shared" si="9"/>
+        <v>3.1770833333333335</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:O58" si="10">K44/L44</f>
-        <v>2.4391304347826086</v>
+        <f t="shared" si="10"/>
+        <v>3.0677083333333335</v>
       </c>
       <c r="P44">
-        <f t="shared" ref="P44:P58" si="11">J44/K44</f>
-        <v>1.0160427807486632</v>
+        <f t="shared" si="11"/>
+        <v>1.0356536502546689</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
       </c>
       <c r="F45">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="G45">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="H45">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J45">
         <f t="shared" si="6"/>
-        <v>598</v>
+        <v>551</v>
       </c>
       <c r="K45">
         <f t="shared" si="7"/>
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="L45">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N45">
         <f t="shared" si="9"/>
-        <v>3.3222222222222224</v>
+        <v>3.095505617977528</v>
       </c>
       <c r="O45">
         <f t="shared" si="10"/>
-        <v>1.038888888888889</v>
+        <v>1.101123595505618</v>
       </c>
       <c r="P45">
         <f t="shared" si="11"/>
-        <v>3.1978609625668448</v>
+        <v>2.8112244897959182</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
         <v>21</v>
       </c>
       <c r="F46">
-        <v>710</v>
+        <v>907</v>
       </c>
       <c r="G46">
-        <v>689</v>
+        <v>754</v>
       </c>
       <c r="H46">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="J46">
         <f t="shared" si="6"/>
-        <v>610</v>
+        <v>807</v>
       </c>
       <c r="K46">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>654</v>
       </c>
       <c r="L46">
         <f t="shared" si="8"/>
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="N46">
         <f t="shared" si="9"/>
-        <v>3.1770833333333335</v>
+        <v>2.6116504854368934</v>
       </c>
       <c r="O46">
         <f t="shared" si="10"/>
-        <v>3.0677083333333335</v>
+        <v>2.116504854368932</v>
       </c>
       <c r="P46">
         <f t="shared" si="11"/>
-        <v>1.0356536502546689</v>
+        <v>1.2339449541284404</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
         <v>16</v>
       </c>
       <c r="F47">
-        <v>651</v>
+        <v>276</v>
       </c>
       <c r="G47">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="H47">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="J47">
         <f t="shared" si="6"/>
-        <v>551</v>
+        <v>176</v>
       </c>
       <c r="K47">
         <f t="shared" si="7"/>
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="L47">
         <f t="shared" si="8"/>
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="N47">
         <f t="shared" si="9"/>
-        <v>3.095505617977528</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="O47">
         <f t="shared" si="10"/>
-        <v>1.101123595505618</v>
+        <v>1.202020202020202</v>
       </c>
       <c r="P47">
         <f t="shared" si="11"/>
-        <v>2.8112244897959182</v>
+        <v>1.4789915966386555</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
       </c>
       <c r="F48">
-        <v>907</v>
+        <v>346</v>
       </c>
       <c r="G48">
-        <v>754</v>
+        <v>291</v>
       </c>
       <c r="H48">
-        <v>409</v>
+        <v>213</v>
       </c>
       <c r="J48">
         <f t="shared" si="6"/>
-        <v>807</v>
+        <v>246</v>
       </c>
       <c r="K48">
         <f t="shared" si="7"/>
-        <v>654</v>
+        <v>191</v>
       </c>
       <c r="L48">
         <f t="shared" si="8"/>
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="N48">
         <f t="shared" si="9"/>
-        <v>2.6116504854368934</v>
+        <v>2.1769911504424777</v>
       </c>
       <c r="O48">
         <f t="shared" si="10"/>
-        <v>2.116504854368932</v>
+        <v>1.6902654867256637</v>
       </c>
       <c r="P48">
         <f t="shared" si="11"/>
-        <v>1.2339449541284404</v>
+        <v>1.287958115183246</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
         <v>30</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>40</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
       </c>
       <c r="F49">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G49">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="H49">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J49">
         <f t="shared" si="6"/>
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K49">
         <f t="shared" si="7"/>
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="L49">
         <f t="shared" si="8"/>
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="N49">
         <f t="shared" si="9"/>
-        <v>1.7777777777777777</v>
+        <v>1.8279569892473118</v>
       </c>
       <c r="O49">
         <f t="shared" si="10"/>
-        <v>1.202020202020202</v>
+        <v>1.075268817204301</v>
       </c>
       <c r="P49">
         <f t="shared" si="11"/>
-        <v>1.4789915966386555</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
       </c>
       <c r="F50">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="G50">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="H50">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="J50">
         <f t="shared" si="6"/>
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="K50">
         <f t="shared" si="7"/>
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="L50">
         <f t="shared" si="8"/>
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="N50">
         <f t="shared" si="9"/>
-        <v>2.1769911504424777</v>
+        <v>2.5974025974025974</v>
       </c>
       <c r="O50">
         <f t="shared" si="10"/>
-        <v>1.6902654867256637</v>
+        <v>2.2467532467532467</v>
       </c>
       <c r="P50">
         <f t="shared" si="11"/>
-        <v>1.287958115183246</v>
+        <v>1.1560693641618498</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
         <v>16</v>
       </c>
       <c r="F51">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="G51">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="H51">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="J51">
         <f t="shared" si="6"/>
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="K51">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="L51">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="N51">
         <f t="shared" si="9"/>
-        <v>1.8279569892473118</v>
+        <v>1.8846153846153846</v>
       </c>
       <c r="O51">
         <f t="shared" si="10"/>
-        <v>1.075268817204301</v>
+        <v>1.1923076923076923</v>
       </c>
       <c r="P51">
         <f t="shared" si="11"/>
-        <v>1.7</v>
+        <v>1.5806451612903225</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
       </c>
       <c r="F52">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="G52">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="H52">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J52">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="K52">
         <f t="shared" si="7"/>
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="L52">
         <f t="shared" si="8"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="N52">
         <f t="shared" si="9"/>
-        <v>2.5974025974025974</v>
+        <v>2.5245901639344264</v>
       </c>
       <c r="O52">
         <f t="shared" si="10"/>
-        <v>2.2467532467532467</v>
+        <v>2.0655737704918034</v>
       </c>
       <c r="P52">
         <f t="shared" si="11"/>
-        <v>1.1560693641618498</v>
+        <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="E53" t="s">
         <v>16</v>
       </c>
       <c r="F53">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="G53">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H53">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J53">
         <f t="shared" si="6"/>
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K53">
         <f t="shared" si="7"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L53">
         <f t="shared" si="8"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N53">
         <f t="shared" si="9"/>
-        <v>1.8846153846153846</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="O53">
         <f t="shared" si="10"/>
-        <v>1.1923076923076923</v>
+        <v>1.1041666666666667</v>
       </c>
       <c r="P53">
         <f t="shared" si="11"/>
-        <v>1.5806451612903225</v>
+        <v>1.2830188679245282</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="G54">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="H54">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="J54">
         <f t="shared" si="6"/>
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K54">
         <f t="shared" si="7"/>
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="L54">
         <f t="shared" si="8"/>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="N54">
         <f t="shared" si="9"/>
-        <v>2.5245901639344264</v>
+        <v>1.9591836734693877</v>
       </c>
       <c r="O54">
         <f t="shared" si="10"/>
-        <v>2.0655737704918034</v>
+        <v>0.89795918367346939</v>
       </c>
       <c r="P54">
         <f t="shared" si="11"/>
-        <v>1.2222222222222223</v>
+        <v>2.1818181818181817</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F55">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="G55">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="H55">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J55">
         <f t="shared" si="6"/>
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="K55">
         <f t="shared" si="7"/>
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="L55">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N55">
         <f t="shared" si="9"/>
-        <v>1.4166666666666667</v>
+        <v>3.1224489795918369</v>
       </c>
       <c r="O55">
         <f t="shared" si="10"/>
-        <v>1.1041666666666667</v>
+        <v>3.5510204081632653</v>
       </c>
       <c r="P55">
         <f t="shared" si="11"/>
-        <v>1.2830188679245282</v>
+        <v>0.87931034482758619</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E56" t="s">
         <v>16</v>
       </c>
       <c r="F56">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G56">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="H56">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J56">
         <f t="shared" si="6"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K56">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="L56">
         <f t="shared" si="8"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N56">
         <f t="shared" si="9"/>
-        <v>1.9591836734693877</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="O56">
         <f t="shared" si="10"/>
-        <v>0.89795918367346939</v>
+        <v>1.7291666666666667</v>
       </c>
       <c r="P56">
-        <f t="shared" si="11"/>
-        <v>2.1818181818181817</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>70</v>
-      </c>
-      <c r="E57" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57">
-        <v>253</v>
-      </c>
-      <c r="G57">
-        <v>274</v>
-      </c>
-      <c r="H57">
-        <v>149</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="6"/>
-        <v>153</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="7"/>
-        <v>174</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="9"/>
-        <v>3.1224489795918369</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="10"/>
-        <v>3.5510204081632653</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="11"/>
-        <v>0.87931034482758619</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58">
-        <v>53</v>
-      </c>
-      <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58">
-        <v>192</v>
-      </c>
-      <c r="G58">
-        <v>183</v>
-      </c>
-      <c r="H58">
-        <v>148</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="7"/>
-        <v>83</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="9"/>
-        <v>1.9166666666666667</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="10"/>
-        <v>1.7291666666666667</v>
-      </c>
-      <c r="P58">
         <f t="shared" si="11"/>
         <v>1.1084337349397591</v>
       </c>
@@ -3396,21 +3328,21 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -3421,10 +3353,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3435,10 +3367,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3449,10 +3381,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -3464,10 +3396,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -3479,10 +3411,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -3494,10 +3426,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -3508,10 +3440,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -3522,10 +3454,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3543,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AE55D0-A24D-B547-B7CE-B6D9468B124A}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3554,58 +3486,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>48</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>49</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
-      </c>
-      <c r="R1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -3613,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3625,43 +3557,43 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>9</v>
       </c>
       <c r="J2">
-        <v>3.49453125794482</v>
+        <v>3.12355324956832</v>
       </c>
       <c r="K2">
         <v>1.4518969446128001</v>
       </c>
       <c r="L2">
-        <v>1.4217726951016201</v>
+        <v>0.85196221497194002</v>
       </c>
       <c r="M2">
         <v>0.19358044838227301</v>
       </c>
       <c r="N2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4.1229500000000002E-4</v>
+      </c>
+      <c r="R2" t="s">
         <v>54</v>
-      </c>
-      <c r="P2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2.7970000000000002E-4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -3669,10 +3601,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -3681,43 +3613,43 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>9</v>
       </c>
       <c r="J3">
-        <v>3.0347917194923801</v>
+        <v>2.9804977438804201</v>
       </c>
       <c r="K3">
         <v>1.17830229728823</v>
       </c>
       <c r="L3">
-        <v>0.87325514881338495</v>
+        <v>0.90814823772499598</v>
       </c>
       <c r="M3">
         <v>0.28902437736977998</v>
       </c>
       <c r="N3">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>4.1229500000000002E-4</v>
+      </c>
+      <c r="R3" t="s">
         <v>54</v>
-      </c>
-      <c r="P3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>2.7970000000000002E-4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -3725,10 +3657,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -3737,7 +3669,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -3767,13 +3699,13 @@
         <v>11</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="2">
         <v>4.9709200000000002E-2</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -3781,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -3793,7 +3725,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -3820,16 +3752,16 @@
         <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="2">
         <v>0.57342700000000002</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -3837,10 +3769,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -3849,43 +3781,43 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>3.49453125794482</v>
+        <v>3.12355324956832</v>
       </c>
       <c r="K6">
-        <v>3.0579883787661499</v>
+        <v>3.10871459501762</v>
       </c>
       <c r="L6">
-        <v>1.4217726951016201</v>
+        <v>0.85196221497194002</v>
       </c>
       <c r="M6">
-        <v>0.77633730809282697</v>
+        <v>0.79309773075578804</v>
       </c>
       <c r="N6">
-        <v>0.91516047646044496</v>
+        <v>4.0271601204830802E-2</v>
       </c>
       <c r="O6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.37101000000000001</v>
+        <v>0.96831999999999996</v>
       </c>
       <c r="R6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -3893,10 +3825,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -3905,43 +3837,43 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>3.0347917194923801</v>
+        <v>2.9804977438804201</v>
       </c>
       <c r="K7">
-        <v>1.3477378858032001</v>
+        <v>1.12266592889761</v>
       </c>
       <c r="L7">
-        <v>0.87325514881338495</v>
+        <v>0.90814823772499598</v>
       </c>
       <c r="M7">
-        <v>0.82235869906848102</v>
+        <v>0.27426943059853098</v>
       </c>
       <c r="N7">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.9709400000000001E-4</v>
+      </c>
+      <c r="R7" t="s">
         <v>54</v>
-      </c>
-      <c r="P7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>6.8426000000000001E-4</v>
-      </c>
-      <c r="R7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -3949,10 +3881,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -3961,7 +3893,7 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -3991,13 +3923,13 @@
         <v>11</v>
       </c>
       <c r="P8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="2">
         <v>2.4879600000000001E-5</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -4005,10 +3937,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -4017,7 +3949,7 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -4047,13 +3979,13 @@
         <v>11</v>
       </c>
       <c r="P9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="2">
         <v>4.0895099999999997E-2</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -4061,55 +3993,55 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>6</v>
       </c>
       <c r="J10">
-        <v>3.49453125794482</v>
+        <v>3.12355324956832</v>
       </c>
       <c r="K10">
         <v>1.7971445264071899</v>
       </c>
       <c r="L10">
-        <v>1.4217726951016201</v>
+        <v>0.85196221497194002</v>
       </c>
       <c r="M10">
         <v>0.197119891842506</v>
       </c>
       <c r="N10">
-        <v>2.8681537138312598</v>
-      </c>
-      <c r="O10">
-        <v>14</v>
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
       </c>
       <c r="P10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>7.9920100000000003E-4</v>
+      </c>
+      <c r="R10" t="s">
         <v>54</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1.23978E-2</v>
-      </c>
-      <c r="R10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -4117,55 +4049,55 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>6</v>
       </c>
       <c r="J11">
-        <v>3.0347917194923801</v>
+        <v>2.9804977438804201</v>
       </c>
       <c r="K11">
         <v>1.5554845904352399</v>
       </c>
       <c r="L11">
-        <v>0.87325514881338495</v>
+        <v>0.90814823772499598</v>
       </c>
       <c r="M11">
         <v>0.37249288343928599</v>
       </c>
       <c r="N11">
-        <v>3.8991094368956398</v>
+        <v>3.6101876029399902</v>
       </c>
       <c r="O11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.6045600000000001E-3</v>
+        <v>3.1695099999999999E-3</v>
       </c>
       <c r="R11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -4173,19 +4105,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -4215,13 +4147,13 @@
         <v>12</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="2">
         <v>8.8640999999999998E-2</v>
       </c>
       <c r="R12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -4229,19 +4161,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -4271,48 +4203,48 @@
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="2">
         <v>0.52830600000000005</v>
       </c>
       <c r="R13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
       <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
         <v>42</v>
       </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
       <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>48</v>
       </c>
-      <c r="I15" t="s">
-        <v>49</v>
-      </c>
       <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
         <v>51</v>
-      </c>
-      <c r="K15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -4320,16 +4252,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -4347,7 +4279,7 @@
         <v>7.2684393787314394E-71</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4355,16 +4287,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -4382,10 +4314,916 @@
         <v>4.4049355577049999E-77</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51721F6E-2AEE-E74F-9959-5D043D15DED7}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25.903799899999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9.9899999999999992E-6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10.183333299999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.7070330000000002E-2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.2780952399999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.35070303000000003</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>22.104232799999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6.2100000000000005E-5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>3.12355324956832</v>
+      </c>
+      <c r="K10">
+        <v>1.4518969446128001</v>
+      </c>
+      <c r="L10">
+        <v>0.85196221497194002</v>
+      </c>
+      <c r="M10">
+        <v>0.19358044838227301</v>
+      </c>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3.48575E-4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3.11520611057496</v>
+      </c>
+      <c r="K11">
+        <v>4.4465875863902102</v>
+      </c>
+      <c r="L11">
+        <v>0.48745460731319701</v>
+      </c>
+      <c r="M11">
+        <v>1.8870323774827</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.23672399999999999</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>3.12355324956832</v>
+      </c>
+      <c r="K12">
+        <v>3.10871459501762</v>
+      </c>
+      <c r="L12">
+        <v>0.85196221497194002</v>
+      </c>
+      <c r="M12">
+        <v>0.79309773075578804</v>
+      </c>
+      <c r="N12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.90926899999999999</v>
+      </c>
+      <c r="R12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3.11520611057496</v>
+      </c>
+      <c r="K13">
+        <v>5.8732078853046596</v>
+      </c>
+      <c r="L13">
+        <v>0.48745460731319701</v>
+      </c>
+      <c r="M13">
+        <v>0.97012878938837499</v>
+      </c>
+      <c r="N13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.1229899999999999E-2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>3.12355324956832</v>
+      </c>
+      <c r="K14">
+        <v>1.7971445264071899</v>
+      </c>
+      <c r="L14">
+        <v>0.85196221497194002</v>
+      </c>
+      <c r="M14">
+        <v>0.197119891842506</v>
+      </c>
+      <c r="N14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2.1830399999999998E-3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>3.11520611057496</v>
+      </c>
+      <c r="K15">
+        <v>2.6053582228428298</v>
+      </c>
+      <c r="L15">
+        <v>0.48745460731319701</v>
+      </c>
+      <c r="M15">
+        <v>0.39049881380446599</v>
+      </c>
+      <c r="N15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>8.9686000000000002E-2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2.9804977400000001</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.1783022999999999</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.90814824000000005</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.28902438000000003</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>3.4900000000000003E-4</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.0905355400000001</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.1179645</v>
+      </c>
+      <c r="L18" s="3">
+        <v>9.0749460000000004E-2</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.45002943000000001</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.499</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3">
+        <v>9</v>
+      </c>
+      <c r="I19" s="3">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2.9804977400000001</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.1226659299999999</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.90814824000000005</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.27426942999999998</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1.0905355400000001</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.70463549</v>
+      </c>
+      <c r="L20" s="3">
+        <v>9.0749460000000004E-2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.92500199000000005</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2.9804977400000001</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1.5554845900000001</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.90814824000000005</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.37249288000000003</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>4.6800000000000001E-3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1.0905355400000001</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.13639001</v>
+      </c>
+      <c r="L22" s="3">
+        <v>9.0749460000000004E-2</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.17964529000000001</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:R8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>